--- a/Compass.Wpf/bin/Debug/net6.0-windows/CutList.xlsx
+++ b/Compass.Wpf/bin/Debug/net6.0-windows/CutList.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAA148-1C1F-4A1D-AD86-21FC306ABED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C36781-7856-4E0C-BEBE-F9FC4250740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$K</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,47 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">PROJECT NAME: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODP No: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM NO: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module NO: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size: </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t xml:space="preserve">Project Engineer: </t>
-  </si>
-  <si>
-    <t>Part Description</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
     <t>Width</t>
   </si>
   <si>
-    <t>Thickness MM</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -85,18 +55,46 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Part No</t>
+    <t xml:space="preserve">Item(Module) No: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thk.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Print: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Model(Size): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODP-Project Name: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +102,32 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,15 +168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -173,35 +186,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,201 +508,114 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
